--- a/Average House Prices.xlsx
+++ b/Average House Prices.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nickb\Documents\GitHub\airbnb_nyc_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A8A495-92D0-42E5-B87B-81EFED729A5E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48837A3C-0245-4F11-B23B-40F33771E464}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{ED647318-F53D-4EA3-93DF-EE5354D28645}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{ED647318-F53D-4EA3-93DF-EE5354D28645}"/>
   </bookViews>
   <sheets>
     <sheet name="Housing Prices" sheetId="1" r:id="rId1"/>
@@ -766,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B158F10C-8901-46CC-AA17-578CE7A5939E}">
   <dimension ref="B2:D10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -877,6 +877,18 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D3:D10">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -888,7 +900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB69B72-0691-4712-99C3-75F2A9839116}">
   <dimension ref="B2:E5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
